--- a/biology/Médecine/Psycholeptique/Psycholeptique.xlsx
+++ b/biology/Médecine/Psycholeptique/Psycholeptique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Les psycholeptiques sont des substances psychotropes considérées comme des sédatifs psychiques, qui ralentissent l'activité du système nerveux et ont une action dépressive sur l'humeur.
 Le terme est issu de la classification des psychotropes selon Delay et Deniker, ils comprennent :
